--- a/data/trans_dic/P25A$preocupacion-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 17,34</t>
+          <t>5,02; 16,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 20,43</t>
+          <t>6,22; 21,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 20,48</t>
+          <t>6,12; 22,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,41</t>
+          <t>0,0; 18,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 20,6</t>
+          <t>3,75; 21,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 15,85</t>
+          <t>2,82; 16,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 15,06</t>
+          <t>4,67; 14,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 18,78</t>
+          <t>6,93; 18,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 15,51</t>
+          <t>5,5; 16,03</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 17,48</t>
+          <t>2,67; 16,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 17,2</t>
+          <t>4,09; 17,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 24,52</t>
+          <t>7,61; 25,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 32,62</t>
+          <t>7,43; 34,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 22,59</t>
+          <t>3,68; 23,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 14,47</t>
+          <t>1,48; 14,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 18,17</t>
+          <t>6,36; 18,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,31</t>
+          <t>5,34; 16,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 17,67</t>
+          <t>5,96; 17,67</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 16,23</t>
+          <t>4,6; 16,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,89</t>
+          <t>1,9; 8,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 16,53</t>
+          <t>4,84; 16,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,55</t>
+          <t>0,0; 16,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 22,19</t>
+          <t>2,76; 23,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,62</t>
+          <t>0,0; 35,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 14,45</t>
+          <t>4,5; 14,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 9,13</t>
+          <t>2,57; 9,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 15,3</t>
+          <t>4,81; 15,8</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,33</t>
+          <t>4,27; 10,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,44</t>
+          <t>4,61; 10,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 16,55</t>
+          <t>7,87; 16,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,42</t>
+          <t>0,0; 12,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 13,23</t>
+          <t>3,5; 13,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 12,1</t>
+          <t>2,12; 12,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,12</t>
+          <t>3,91; 9,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,73</t>
+          <t>4,97; 9,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,78</t>
+          <t>6,85; 13,55</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,27</t>
+          <t>0,0; 9,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 15,2</t>
+          <t>5,23; 16,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 22,04</t>
+          <t>8,36; 21,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 24,1</t>
+          <t>2,75; 22,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 15,42</t>
+          <t>1,36; 14,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 26,57</t>
+          <t>8,12; 26,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 11,57</t>
+          <t>2,71; 12,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,83</t>
+          <t>4,32; 12,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,55; 21,01</t>
+          <t>9,85; 21,42</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 21,63</t>
+          <t>2,41; 20,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 19,13</t>
+          <t>2,14; 19,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,69</t>
+          <t>0,0; 15,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 19,49</t>
+          <t>2,22; 19,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 18,18</t>
+          <t>2,73; 18,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,41</t>
+          <t>0,0; 15,84</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,04</t>
+          <t>5,57; 9,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,88</t>
+          <t>6,0; 9,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,82</t>
+          <t>9,35; 14,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,7</t>
+          <t>5,27; 12,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,63</t>
+          <t>5,69; 11,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 11,76</t>
+          <t>5,57; 11,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,55</t>
+          <t>6,11; 9,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 9,64</t>
+          <t>6,36; 9,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,81</t>
+          <t>8,74; 12,74</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la preocupación por sus efectos nocivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9490</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13613</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11047</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2371</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5116</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11862</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18729</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15732</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4811; 15916</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6969; 23779</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5717; 21024</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7065</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1940; 11186</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1732; 10042</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6253; 19638</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11352; 29828</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8510; 24807</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6671</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8005</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11093</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5779</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4014</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13428</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13784</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15107</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2131; 13396</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3677; 15696</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5543; 18789</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3006; 14101</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1991; 12756</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>991; 9458</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7655; 22812</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7685; 23136</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8332; 24701</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10106</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9198</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10906</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10439</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10082</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4906; 17314</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3074; 13452</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4754; 15858</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4139</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>972; 8322</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4646</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5895; 19372</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5066; 18170</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5357; 17609</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18430</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22484</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26293</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8444</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4792</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20896</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30928</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31085</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11627; 28997</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14698; 33054</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17930; 37353</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8154</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3955; 15299</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1838; 10742</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13104; 31837</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21491; 42497</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21524; 42610</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11908</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14872</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3788</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11224</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5753</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15588</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26096</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6197</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6647; 20364</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9001; 23319</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>975; 7894</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>943; 9945</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5698; 18591</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2690; 12277</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8489; 24224</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17517; 38101</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1862</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1862</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1460</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1589</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1703</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1181; 10163</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1305; 12018</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5617</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1208; 10884</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1828; 12691</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6607</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>46662</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>72502</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>20568</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>31362</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27462</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>67230</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>94611</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>99964</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>34719; 60492</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>48967; 81135</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>56644; 90187</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13204; 31723</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21878; 44199</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>18643; 39114</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>53454; 84654</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>76367; 115511</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>82202; 119729</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$preocupacion-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
